--- a/ReviewKanjiV3/gen/page9.xlsx
+++ b/ReviewKanjiV3/gen/page9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\ReviewKanjiV3\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB009D-F2F6-4660-B2B6-04BAE13F21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302B03B0-17F7-4717-837E-988D339E2517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="5580" windowWidth="10305" windowHeight="4890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>title</t>
   </si>
@@ -415,6 +415,15 @@
   </si>
   <si>
     <t>đen</t>
+  </si>
+  <si>
+    <t>震</t>
+  </si>
+  <si>
+    <t>chấn</t>
+  </si>
+  <si>
+    <t>địa chấn</t>
   </si>
 </sst>
 </file>
@@ -484,91 +493,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <font>
         <b/>
@@ -1166,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,13 +1218,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,52 +1610,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="58" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120">
-    <cfRule type="duplicateValues" dxfId="57" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120">
-    <cfRule type="duplicateValues" dxfId="56" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="55" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="54" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="53" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="52" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="51" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="50" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="49" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="48" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="47" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="46" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="45" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="duplicateValues" dxfId="44" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:B116">
-    <cfRule type="duplicateValues" dxfId="43" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
